--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CE/15/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CE/15/seed3/result_data_RandomForest.xlsx
@@ -559,7 +559,7 @@
         <v>-9.359999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>15.36020000000001</v>
+        <v>15.33060000000001</v>
       </c>
     </row>
     <row r="8">
@@ -570,7 +570,7 @@
         <v>2.91</v>
       </c>
       <c r="C8" t="n">
-        <v>-12.16059999999999</v>
+        <v>-12.30889999999999</v>
       </c>
       <c r="D8" t="n">
         <v>-8.029999999999999</v>
@@ -604,7 +604,7 @@
         <v>6.17</v>
       </c>
       <c r="C10" t="n">
-        <v>-13.1755</v>
+        <v>-13.24</v>
       </c>
       <c r="D10" t="n">
         <v>-8.85</v>
@@ -638,7 +638,7 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-10.6782</v>
+        <v>-10.6487</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
@@ -695,7 +695,7 @@
         <v>-10.04</v>
       </c>
       <c r="E15" t="n">
-        <v>16.18569999999999</v>
+        <v>16.1556</v>
       </c>
     </row>
     <row r="16">
@@ -740,13 +740,13 @@
         <v>4.35</v>
       </c>
       <c r="C18" t="n">
-        <v>-12.0128</v>
+        <v>-11.62579999999999</v>
       </c>
       <c r="D18" t="n">
         <v>-6.27</v>
       </c>
       <c r="E18" t="n">
-        <v>18.08530000000001</v>
+        <v>18.13400000000001</v>
       </c>
     </row>
     <row r="19">
@@ -780,7 +780,7 @@
         <v>-10.64</v>
       </c>
       <c r="E20" t="n">
-        <v>15.94589999999999</v>
+        <v>15.97759999999999</v>
       </c>
     </row>
     <row r="21">
@@ -933,7 +933,7 @@
         <v>-7.09</v>
       </c>
       <c r="E29" t="n">
-        <v>17.08040000000002</v>
+        <v>17.03750000000002</v>
       </c>
     </row>
     <row r="30">
@@ -950,7 +950,7 @@
         <v>-10.18</v>
       </c>
       <c r="E30" t="n">
-        <v>15.4604</v>
+        <v>15.5702</v>
       </c>
     </row>
     <row r="31">
@@ -967,7 +967,7 @@
         <v>-9.77</v>
       </c>
       <c r="E31" t="n">
-        <v>16.0417</v>
+        <v>15.94890000000001</v>
       </c>
     </row>
     <row r="32">
@@ -1063,7 +1063,7 @@
         <v>9.41</v>
       </c>
       <c r="C37" t="n">
-        <v>-14.32569999999999</v>
+        <v>-14.23269999999999</v>
       </c>
       <c r="D37" t="n">
         <v>-7.88</v>
@@ -1120,7 +1120,7 @@
         <v>-7.23</v>
       </c>
       <c r="E40" t="n">
-        <v>17.1718</v>
+        <v>17.07560000000001</v>
       </c>
     </row>
     <row r="41">
@@ -1290,7 +1290,7 @@
         <v>-8.029999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>16.2343</v>
+        <v>16.16239999999999</v>
       </c>
     </row>
     <row r="51">
@@ -1369,7 +1369,7 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-13.18979999999999</v>
+        <v>-13.24309999999999</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
@@ -1590,13 +1590,13 @@
         <v>4.88</v>
       </c>
       <c r="C68" t="n">
-        <v>-11.0566</v>
+        <v>-11.1096</v>
       </c>
       <c r="D68" t="n">
         <v>-7.27</v>
       </c>
       <c r="E68" t="n">
-        <v>17.25030000000001</v>
+        <v>17.00080000000001</v>
       </c>
     </row>
     <row r="69">
@@ -1732,7 +1732,7 @@
         <v>-7.88</v>
       </c>
       <c r="E76" t="n">
-        <v>16.11919999999999</v>
+        <v>16.10349999999999</v>
       </c>
     </row>
     <row r="77">
@@ -1743,7 +1743,7 @@
         <v>10.09</v>
       </c>
       <c r="C77" t="n">
-        <v>-11.9482</v>
+        <v>-11.8159</v>
       </c>
       <c r="D77" t="n">
         <v>-6.2</v>
@@ -1760,7 +1760,7 @@
         <v>9.640000000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>-11.94110000000001</v>
+        <v>-12.14240000000001</v>
       </c>
       <c r="D78" t="n">
         <v>-6.53</v>
@@ -1811,7 +1811,7 @@
         <v>3.85</v>
       </c>
       <c r="C81" t="n">
-        <v>-13.3121</v>
+        <v>-12.9249</v>
       </c>
       <c r="D81" t="n">
         <v>-8.390000000000001</v>
@@ -1828,7 +1828,7 @@
         <v>5.26</v>
       </c>
       <c r="C82" t="n">
-        <v>-11.97179999999999</v>
+        <v>-11.95559999999999</v>
       </c>
       <c r="D82" t="n">
         <v>-7.37</v>
@@ -1919,7 +1919,7 @@
         <v>-8.869999999999999</v>
       </c>
       <c r="E87" t="n">
-        <v>16.28290000000001</v>
+        <v>16.221</v>
       </c>
     </row>
     <row r="88">
@@ -1936,7 +1936,7 @@
         <v>-8.140000000000001</v>
       </c>
       <c r="E88" t="n">
-        <v>16.27480000000001</v>
+        <v>16.33530000000001</v>
       </c>
     </row>
     <row r="89">
@@ -2072,7 +2072,7 @@
         <v>-8.529999999999999</v>
       </c>
       <c r="E96" t="n">
-        <v>16.01029999999999</v>
+        <v>16.2061</v>
       </c>
     </row>
     <row r="97">
@@ -2106,7 +2106,7 @@
         <v>-9.33</v>
       </c>
       <c r="E98" t="n">
-        <v>15.5378</v>
+        <v>15.5965</v>
       </c>
     </row>
     <row r="99">
@@ -2157,7 +2157,7 @@
         <v>-7.34</v>
       </c>
       <c r="E101" t="n">
-        <v>16.87650000000002</v>
+        <v>16.75540000000001</v>
       </c>
     </row>
     <row r="102">
@@ -2174,7 +2174,7 @@
         <v>-8.630000000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>16.766</v>
+        <v>16.6086</v>
       </c>
     </row>
   </sheetData>
